--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ThingsFromGithub\Studia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ThingsFromGithub\MDIAlgorytmicznie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B3E638-E107-4C74-9357-442B1E69CB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0882E7-ACB8-480C-84E9-BC6085DF599C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Spędzony czas</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>Tak naprawdę tylko na to przydało by się jeszcze z 5h</t>
+  </si>
+  <si>
+    <t>Jak starczy czasu</t>
+  </si>
+  <si>
+    <t>https://pl.khanacademy.org/math/differential-calculus/dc-chain#dc-chain-rule</t>
+  </si>
+  <si>
+    <t>https://pl.khanacademy.org/math/ap-calculus-ab/ab-diff-analytical-applications-new/ab-5-4/e/critical-numbers</t>
+  </si>
+  <si>
+    <t>Powt z ekstremów lok</t>
   </si>
 </sst>
 </file>
@@ -536,7 +548,7 @@
   <dimension ref="B4:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +834,9 @@
       <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6">
+        <v>1.3</v>
+      </c>
       <c r="K19" t="s">
         <v>31</v>
       </c>
@@ -925,6 +939,12 @@
         <v>44440</v>
       </c>
       <c r="E29" s="6"/>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+      <c r="K29" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
@@ -934,6 +954,12 @@
         <v>20</v>
       </c>
       <c r="E30" s="6"/>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ThingsFromGithub\MDIAlgorytmicznie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0882E7-ACB8-480C-84E9-BC6085DF599C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDB29B7-C68D-4BCE-8EC5-9DD8197DEEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>Spędzony czas</t>
   </si>
@@ -190,6 +190,21 @@
   </si>
   <si>
     <t>Powt z ekstremów lok</t>
+  </si>
+  <si>
+    <t>Dodatkowo</t>
+  </si>
+  <si>
+    <t>Rysowanie i badanie funkcji 2 pochodna etc</t>
+  </si>
+  <si>
+    <t>https://pl.khanacademy.org/math/differential-calculus/dc-analytic-app/</t>
+  </si>
+  <si>
+    <t>+Optymalizacja zagadnień</t>
+  </si>
+  <si>
+    <t>Zastosowania pochodnych</t>
   </si>
 </sst>
 </file>
@@ -252,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -264,6 +279,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -545,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:K34"/>
+  <dimension ref="B4:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +864,9 @@
       <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
       <c r="I20" t="s">
         <v>48</v>
       </c>
@@ -979,7 +997,7 @@
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>44444</v>
       </c>
@@ -988,11 +1006,37 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>44445</v>
       </c>
       <c r="E34" s="6"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F43" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
